--- a/docs/Decodifiche/8_dec_stato_allegato.xlsx
+++ b/docs/Decodifiche/8_dec_stato_allegato.xlsx
@@ -93,7 +93,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,30 +101,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.4921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="18.86328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>

--- a/docs/Decodifiche/8_dec_stato_allegato.xlsx
+++ b/docs/Decodifiche/8_dec_stato_allegato.xlsx
@@ -59,7 +59,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>Altro</t>
+    <t>In elaborazione</t>
   </si>
 </sst>
 </file>

--- a/docs/Decodifiche/8_dec_stato_allegato.xlsx
+++ b/docs/Decodifiche/8_dec_stato_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>In elaborazione</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Validato</t>
+  </si>
+  <si>
+    <t>2000-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>9999-12-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>In attesa di Validazione</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Ritentare Validazione</t>
   </si>
 </sst>
 </file>
@@ -118,16 +142,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.4921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.7421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -233,6 +257,57 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/8_dec_stato_allegato.xlsx
+++ b/docs/Decodifiche/8_dec_stato_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -60,30 +60,6 @@
   </si>
   <si>
     <t>In elaborazione</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Validato</t>
-  </si>
-  <si>
-    <t>2000-01-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>9999-12-31 00:00:00.0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>In attesa di Validazione</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Ritentare Validazione</t>
   </si>
 </sst>
 </file>
@@ -142,16 +118,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.7421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.4921875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.86328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -257,57 +233,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
